--- a/biology/Botanique/Marie_d'Orléans_(rose)/Marie_d'Orléans_(rose).xlsx
+++ b/biology/Botanique/Marie_d'Orléans_(rose)/Marie_d'Orléans_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie_d%27Orl%C3%A9ans_(rose)</t>
+          <t>Marie_d'Orléans_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Marie d'Orléans' est un cultivar de rosier obtenu en 1883 par le rosiériste français Gilbert Nabonnand[1],[2]. Il est dédié à la princesse Marie d'Orléans (1865-1909).
+'Marie d'Orléans' est un cultivar de rosier obtenu en 1883 par le rosiériste français Gilbert Nabonnand,. Il est dédié à la princesse Marie d'Orléans (1865-1909).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie_d%27Orl%C3%A9ans_(rose)</t>
+          <t>Marie_d'Orléans_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé au feuillage sain s'élève de 170 cm à 200 cm. Il peut être palissé en rosier grimpant[1]. Ses fleurs d'un rose soutenu sont grandes et doubles (17-25 pétales pointus et enroulés). Sa floraison est remontante et se prolonge même au début de l'hiver sous les climats doux [3]. Le parfum de la rose 'Marie d'Orléans' est exubérant.
-Il est à protéger du froid par un buttage du pied[3], sa zone de rusticité étant de 7b à 9b.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé au feuillage sain s'élève de 170 cm à 200 cm. Il peut être palissé en rosier grimpant. Ses fleurs d'un rose soutenu sont grandes et doubles (17-25 pétales pointus et enroulés). Sa floraison est remontante et se prolonge même au début de l'hiver sous les climats doux . Le parfum de la rose 'Marie d'Orléans' est exubérant.
+Il est à protéger du froid par un buttage du pied, sa zone de rusticité étant de 7b à 9b.
 On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
         </is>
